--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -102,259 +102,259 @@
 };
 validate2
 {
-validate_PageTitle=Tabbar JS specs
+validate_PageTitle=Native Tabbar JS Test
 };
 validate3
 {
-validate_Text_Exists=VT200-0382
+validate_Text_Exists=VT200-0579
 };
 validate4
 {
-validate_Text_Exists=Current tab index is : 1
+validate_Screenshot=VT200_0579
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0590
+};
+validate4
+{
+validate_Screenshot=VT200_0590
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0580
+};
+validate4
+{
+validate_Screenshot=VT200_0580
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0582
+};
+validate4
+{
+validate_Screenshot=VT200_0582
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0589
+};
+validate4
+{
+validate_Screenshot=VT200_0589
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0594
+};
+validate4
+{
+validate_Screenshot=VT200_0594
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0576
 };</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT200_0382_xpath);
+SelectTestToRun(VT200_0577_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
+TakeScreenshot(VT200_0577);
 validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0577
+};
+validate4
+{
+validate_Screenshot=VT200_0577
+};</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT200_0384_xpath);
+SelectTestToRun(VT200_0579_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
+TakeScreenshot(VT200_0579);
 validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0384
-};
-validate4
-{
-validate_Text_Exists=Current tab index is : 2
-};</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT200_0382_xpath);
+SelectTestToRun(VT200_0590_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-validate4;
-SwitchToTab(tab0_xpath);
-wait(5);
-SelectTestToRun(VT200_0385_xpath);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot();
-validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0382
-};
-validate4
-{
-validate_Text_Exists=Current tab index is : 1
-};
-validate5
-{
-validate_Text_Exists=VT200-0385
-};
-validate6
-{
-validate_PageTitle=Tabbar JS specs
-validate_Screenshot=VT200_0385
-};</t>
+TakeScreenshot(VT200_0590);
+validate4;</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT200_0387_xpath);
+SelectTestToRun(VT200_0580_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
+TakeScreenshot(VT200_0580);
 validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0387
-};
-validate4
-{
-validate_Screenshot=VT200_0387
-};</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT283_0319_xpath);
+SelectTestToRun(VT200_0582_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+TakeScreenshot(VT200_0582);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0585_string);
+ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
+TakeScreenshot(VT200_0585);
 validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT283-0319
-};
-validate4
-{
-validate_Screenshot=VT283_0319
-};</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT283_0321_xpath);
+SelectTestToRun(VT200_0589_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
+TakeScreenshot(VT200_0589);
 validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT283-0321
-};
-validate4
-{
-validate_Screenshot=VT283_0321
-};</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT283_0317_xpath);
+SelectTestToRun(VT200_0594_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
+TakeScreenshot(VT200_0594);
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT283-0317
-};
-validate4
-{
-validate_Screenshot=VT283_0317
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
+    <t xml:space="preserve">wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT283_0324_xpath);
+SelectTestToRun(VT200_0576_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
-validate4;</t>
+TakeScreenshot(VT200_0576);
+validate4;
+</t>
   </si>
   <si>
     <t>validate1
@@ -363,83 +363,67 @@
 };
 validate2
 {
-validate_PageTitle=Tabbar JS specs
+validate_PageTitle=Native Tabbar JS Test
 };
 validate3
 {
-validate_Text_Exists=VT283-0324
+validate_Text_Exists=VT200-0576
 };
 validate4
 {
-validate_Screenshot=VT283_0324
-validate_Result=Callback
+validate_Screenshot=VT200_0576_new
+};
+validate5
+{
+validate_Text_Exists=VT200-0578
+};
+validate6
+{
+validate_Screenshot=VT200_0578
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0585
+};
+validate4
+{
+validate_Screenshot=VT200_0585
 };</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
-Click(tabbar_test_link)
-wait(5);
+link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT283_0343_xpath);
+SelectTestToRun(VT200_0576_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT283-0343
-};
-validate4
-{
-validate_Screenshot=VT283_0343
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-Click(tabbar_test_link)
-wait(5);
-validate2;
-SelectTestToRun(VT283_0335_xpath);
+TakeScreenshot(VT200_0576_new);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0576_mainpage_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT200_0578_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
+validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot();
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Tabbar JS specs
-};
-validate3
-{
-validate_Text_Exists=VT283-0335
-};
-validate4
-{
-validate_Screenshot=VT283_0335
-};</t>
+TakeNativeScreenshot(VT200_0578);
+validate6;</t>
   </si>
 </sst>
 </file>
@@ -838,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -934,16 +918,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="282" thickBot="1">
+    <row r="4" spans="1:11" ht="270.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -961,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -988,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1005,9 +989,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1028,9 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1061,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1088,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1115,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="192" thickBot="1">
+    <row r="11" spans="1:11" ht="180.75" thickBot="1">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1142,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1169,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1196,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -424,6 +424,110 @@
 wait(5);
 TakeNativeScreenshot(VT200_0578);
 validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0576_new
+};
+validate5
+{
+validate_Text_Exists=VT200-0596
+};
+validate6
+{
+validate_Screenshot=VT200_0596
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0576_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0576_new);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0576_mainpage_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT200_0596_string);
+ClickRunTest(runtest_top_xpath);
+validate5;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeNativeScreenshot(VT200_0596);
+validate6;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0576_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0576_new);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0576_mainpage_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT200_0595_string);
+ClickRunTest(runtest_top_xpath);
+validate5;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeNativeScreenshot(VT200_0595);
+validate6;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0576_new
+};
+validate5
+{
+validate_Text_Exists=VT200-0595
+};
+validate6
+{
+validate_Screenshot=VT200_0595
+};
+</t>
   </si>
 </sst>
 </file>
@@ -460,7 +564,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -511,11 +615,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -525,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,7 +949,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -981,7 +1099,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.5" thickBot="1">
+    <row r="6" spans="1:11" ht="282" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -989,20 +1107,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="102" thickBot="1">
+    <row r="7" spans="1:11" ht="270.75" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1010,15 +1134,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1184,6 +1314,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="10" spans="1:11" ht="180.75" thickBot="1">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="11" spans="1:11" ht="180.75" thickBot="1">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="12" spans="1:11" ht="180.75" thickBot="1">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="13" spans="1:11" ht="180.75" thickBot="1">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -367,32 +367,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0576_new
-};
-validate5
-{
-validate_Text_Exists=VT200-0578
-};
-validate6
-{
-validate_Screenshot=VT200_0578
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
 validate_Text_Exists=VT200-0585
 };
 validate4
@@ -410,7 +384,7 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0576_new);
+TakeScreenshot(VT200_0578_before);
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
@@ -440,16 +414,69 @@
 };
 validate4
 {
-validate_Screenshot=VT200_0576_new
+validate_Screenshot=VT200_0578_before
 };
 validate5
 {
-validate_Text_Exists=VT200-0596
+validate_Text_Exists=VT200-0578
 };
 validate6
 {
-validate_Screenshot=VT200_0596
+validate_Screenshot=VT200_0578
 };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0576_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0595_before);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0576_mainpage_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT200_0595_string);
+ClickRunTest(runtest_top_xpath);
+validate5;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeNativeScreenshot(VT200_0595);
+validate6;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0595_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0595
+};
+validate6
+{
+validate_Screenshot=VT200_0595
+};
+</t>
   </si>
   <si>
     <t>wait(5);
@@ -461,7 +488,7 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0576_new);
+TakeScreenshot(VT200_0596_before);
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
@@ -477,33 +504,7 @@
 validate6;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(tabbar_test_link);
-validate2;
-SelectTestToRun(VT200_0576_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0576_new);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-link_Click(VT200_0576_mainpage_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-SelectTestToRun(VT200_0595_string);
-ClickRunTest(runtest_top_xpath);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeNativeScreenshot(VT200_0595);
-validate6;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -517,17 +518,16 @@
 };
 validate4
 {
-validate_Screenshot=VT200_0576_new
+validate_Screenshot=VT200_0596_before
 };
 validate5
 {
-validate_Text_Exists=VT200-0595
+validate_Text_Exists=VT200-0596
 };
 validate6
 {
-validate_Screenshot=VT200_0595
-};
-</t>
+validate_Screenshot=VT200_0596
+};</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1144,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1255,7 +1255,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -308,19 +308,6 @@
 validate1;
 link_Click(tabbar_test_link);
 validate2;
-SelectTestToRun(VT200_0585_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0585);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(tabbar_test_link);
-validate2;
 SelectTestToRun(VT200_0589_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -355,24 +342,6 @@
 TakeScreenshot(VT200_0576);
 validate4;
 </t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0585
-};
-validate4
-{
-validate_Screenshot=VT200_0585
-};</t>
   </si>
   <si>
     <t>wait(5);
@@ -528,6 +497,41 @@
 {
 validate_Screenshot=VT200_0596
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0585
+};
+validate4
+{
+validate_Screenshot=VT200_0585
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0585_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0585);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+link_Click(VT200_0585_page1_xpath);
+CheckUITextContains(1);</t>
   </si>
 </sst>
 </file>
@@ -941,7 +945,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1007,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
@@ -1063,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1117,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1144,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1252,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1279,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
@@ -1306,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>30</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -344,6 +344,103 @@
 </t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0578_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0578
+};
+validate6
+{
+validate_Screenshot=VT200_0578
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0595_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0595
+};
+validate6
+{
+validate_Screenshot=VT200_0595
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0596_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0596
+};
+validate6
+{
+validate_Screenshot=VT200_0596
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0585
+};
+validate4
+{
+validate_Screenshot=VT200_0585
+};</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(tabbar_test_link);
@@ -357,7 +454,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0576_mainpage_xpath);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 SelectTestToRun(VT200_0578_string);
@@ -367,32 +464,6 @@
 wait(5);
 TakeNativeScreenshot(VT200_0578);
 validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0578_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0578
-};
-validate6
-{
-validate_Screenshot=VT200_0578
-};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(5);
@@ -408,7 +479,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0576_mainpage_xpath);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 SelectTestToRun(VT200_0595_string);
@@ -418,33 +489,6 @@
 wait(5);
 TakeNativeScreenshot(VT200_0595);
 validate6;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0595_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0595
-};
-validate6
-{
-validate_Screenshot=VT200_0595
-};
 </t>
   </si>
   <si>
@@ -461,7 +505,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0576_mainpage_xpath);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 SelectTestToRun(VT200_0596_string);
@@ -471,50 +515,6 @@
 wait(5);
 TakeNativeScreenshot(VT200_0596);
 validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0596_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0596
-};
-validate6
-{
-validate_Screenshot=VT200_0596
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0585
-};
-validate4
-{
-validate_Screenshot=VT200_0585
-};</t>
   </si>
   <si>
     <t>wait(5);
@@ -530,7 +530,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0585_page1_xpath);
+ClickNativeIcon(VT200_0585_page1_xpath);
 CheckUITextContains(1);</t>
   </si>
 </sst>
@@ -945,7 +945,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1121,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1148,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1259,7 +1259,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -445,6 +445,23 @@
 validate1;
 link_Click(tabbar_test_link);
 validate2;
+SelectTestToRun(VT200_0585_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0585);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0585_page1_xpath);
+CheckUITextContains(1);</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
 SelectTestToRun(VT200_0576_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -462,7 +479,7 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0578);
+TakeScreenshot(VT200_0578);
 validate6;</t>
   </si>
   <si>
@@ -487,7 +504,7 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0595);
+TakeScreenshot(VT200_0595);
 validate6;
 </t>
   </si>
@@ -513,25 +530,8 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0596);
+TakeScreenshot(VT200_0596);
 validate6;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(tabbar_test_link);
-validate2;
-SelectTestToRun(VT200_0585_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0585);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0585_page1_xpath);
-CheckUITextContains(1);</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>41</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>42</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>43</v>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>44</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_JS.xlsx
@@ -344,32 +344,6 @@
 </t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0578_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0578
-};
-validate6
-{
-validate_Screenshot=VT200_0578
-};</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -456,31 +430,6 @@
 wait(2);
 ClickNativeIcon(VT200_0585_page1_xpath);
 CheckUITextContains(1);</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(tabbar_test_link);
-validate2;
-SelectTestToRun(VT200_0576_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0578_before);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0576_mainpage_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-SelectTestToRun(VT200_0578_string);
-ClickRunTest(runtest_top_xpath);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0578);
-validate6;</t>
   </si>
   <si>
     <t xml:space="preserve">wait(5);
@@ -531,6 +480,55 @@
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
 TakeScreenshot(VT200_0596);
+validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_isIconDisplayed=tabbar_xpath,true
+};
+validate5
+{
+validate_Text_Exists=VT200-0578
+};
+validate6
+{
+validate_isIconDisplayed=tabbar_xpath,false
+};</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0576_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT200_0578_string);
+ClickRunTest(runtest_top_xpath);
+validate5;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
 validate6;</t>
   </si>
 </sst>
@@ -944,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1121,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1148,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1256,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
